--- a/IncidentDuration_coef.xlsx
+++ b/IncidentDuration_coef.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="22">
   <si>
     <t>est_int</t>
   </si>
@@ -22,67 +22,64 @@
     <t>coefs</t>
   </si>
   <si>
-    <t>abs_coefs</t>
-  </si>
-  <si>
-    <t>priority_Priority 4</t>
-  </si>
-  <si>
-    <t>appl_tier_Iron</t>
-  </si>
-  <si>
-    <t>priority_Priority 3</t>
-  </si>
-  <si>
-    <t>contact_type_self-service</t>
-  </si>
-  <si>
-    <t>reopened_flag</t>
-  </si>
-  <si>
-    <t>team_Specialist</t>
-  </si>
-  <si>
-    <t>inc_close_code_Information Provided / Training</t>
-  </si>
-  <si>
-    <t>inc_close_code_Reboot / Restart</t>
-  </si>
-  <si>
-    <t>contact_type_walk-in</t>
-  </si>
-  <si>
-    <t>inc_close_code_Data Correction</t>
-  </si>
-  <si>
-    <t>inc_close_code_Environmental Restoration</t>
-  </si>
-  <si>
-    <t>appl_tier_Gold</t>
-  </si>
-  <si>
-    <t>contact_type_phone</t>
-  </si>
-  <si>
-    <t>appl_tier_Silver</t>
-  </si>
-  <si>
-    <t>contact_type_chat</t>
-  </si>
-  <si>
-    <t>contact_type_other</t>
-  </si>
-  <si>
-    <t>contact_type_Event Management</t>
-  </si>
-  <si>
-    <t>inc_close_code_other</t>
-  </si>
-  <si>
-    <t>inc_close_code_Software Correction</t>
-  </si>
-  <si>
-    <t>inc_close_code_Security Modification</t>
+    <t>inc_close_code#other</t>
+  </si>
+  <si>
+    <t>contact_type#other</t>
+  </si>
+  <si>
+    <t>inc_close_code#Security Modification</t>
+  </si>
+  <si>
+    <t>inc_close_code#Software Correction</t>
+  </si>
+  <si>
+    <t>inc_close_code#Information Provided / Training</t>
+  </si>
+  <si>
+    <t>appl_tier#Iron</t>
+  </si>
+  <si>
+    <t>appl_tier#Silver</t>
+  </si>
+  <si>
+    <t>team#Specialist</t>
+  </si>
+  <si>
+    <t>priority#Priority 4</t>
+  </si>
+  <si>
+    <t>inc_close_code#Data Correction</t>
+  </si>
+  <si>
+    <t>inc_close_code#Environmental Restoration</t>
+  </si>
+  <si>
+    <t>contact_type#Event Management</t>
+  </si>
+  <si>
+    <t>inc_close_code#Reboot / Restart</t>
+  </si>
+  <si>
+    <t>contact_type#walk-in</t>
+  </si>
+  <si>
+    <t>contact_type#self-service</t>
+  </si>
+  <si>
+    <t>contact_type#chat</t>
+  </si>
+  <si>
+    <t>appl_tier#Gold</t>
+  </si>
+  <si>
+    <t>reopened_flag#1</t>
+  </si>
+  <si>
+    <t>contact_type#phone</t>
+  </si>
+  <si>
+    <t>priority#Priority 3</t>
   </si>
 </sst>
 </file>
@@ -440,301 +437,898 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:C81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1">
+      <c r="C2">
+        <v>80828720122185.47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>40386866224036.34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>35</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>10910901480751.07</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>76</v>
+      </c>
+      <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C5">
+        <v>10710083870930.35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>37</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>7155971900259.449</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>6665056856728.433</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>77</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>6409382522520.357</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>5927802997315.138</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>46</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>5810143680751.263</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>47</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>5810143680751.263</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>34</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <v>5578858231770.087</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13">
+        <v>5039792767461.843</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>65</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14">
+        <v>3371970615858.45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>50</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15">
+        <v>3329143387635.076</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>51</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16">
+        <v>2960243104133.646</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>27</v>
+      </c>
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17">
+        <v>2837889451215.693</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>69</v>
+      </c>
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18">
+        <v>2766797434374.857</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>11</v>
+      </c>
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19">
+        <v>2583906631600.736</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>13</v>
+      </c>
+      <c r="B20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20">
+        <v>2412688991563.292</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>73</v>
+      </c>
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21">
+        <v>2304703222570.802</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22">
+        <v>1875789671965.685</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>68</v>
+      </c>
+      <c r="B23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23">
+        <v>1549746782816.801</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24">
+        <v>1505024000602.069</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>14</v>
+      </c>
+      <c r="B25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25">
+        <v>1402482597110.645</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>67</v>
+      </c>
+      <c r="B26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26">
+        <v>1107217105145.238</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>66</v>
+      </c>
+      <c r="B27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27">
+        <v>1093496406891.887</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>61</v>
+      </c>
+      <c r="B28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28">
+        <v>1013673723858.488</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>54</v>
+      </c>
+      <c r="B29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29">
+        <v>1008193905703.118</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
         <v>3</v>
       </c>
-      <c r="C2">
-        <v>2.968881312042174</v>
-      </c>
-      <c r="D2">
-        <v>2.968881312042174</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
+      <c r="B30" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30">
+        <v>970999498138.244</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>1</v>
+      </c>
+      <c r="B31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31">
+        <v>968244280381.575</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>58</v>
+      </c>
+      <c r="B32" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32">
+        <v>946600615806.4926</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>55</v>
+      </c>
+      <c r="B33" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33">
+        <v>945818236978.5614</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>41</v>
+      </c>
+      <c r="B34" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34">
+        <v>942173547120.4701</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>64</v>
+      </c>
+      <c r="B35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35">
+        <v>894988736498.3885</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>40</v>
+      </c>
+      <c r="B36" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36">
+        <v>629194497625.5348</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>72</v>
+      </c>
+      <c r="B37" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37">
+        <v>602289367146.0282</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>29</v>
+      </c>
+      <c r="B38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38">
+        <v>598011013525.9764</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>8</v>
+      </c>
+      <c r="B39" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39">
+        <v>573089542727.1829</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>25</v>
+      </c>
+      <c r="B40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40">
+        <v>462688398234.6724</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>59</v>
+      </c>
+      <c r="B41" t="s">
+        <v>20</v>
+      </c>
+      <c r="C41">
+        <v>383068497600.7668</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1">
+        <v>9</v>
+      </c>
+      <c r="B42" t="s">
+        <v>21</v>
+      </c>
+      <c r="C42">
+        <v>306184805418.4026</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
+        <v>53</v>
+      </c>
+      <c r="B43" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43">
+        <v>146122637431.6806</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>18</v>
+      </c>
+      <c r="C44">
+        <v>106455797242.064</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45">
+        <v>74301602392.5963</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46">
+        <v>74301602392.5963</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1">
+        <v>60</v>
+      </c>
+      <c r="B47" t="s">
+        <v>16</v>
+      </c>
+      <c r="C47">
+        <v>-107306560968.2704</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1">
+        <v>62</v>
+      </c>
+      <c r="B48" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48">
+        <v>-342961746334.9583</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>21</v>
+      </c>
+      <c r="C49">
+        <v>-439013693466.1095</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>21</v>
+      </c>
+      <c r="C50">
+        <v>-440260654678.484</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B51" t="s">
+        <v>18</v>
+      </c>
+      <c r="C51">
+        <v>-500729018223.0951</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1">
+        <v>18</v>
+      </c>
+      <c r="B52" t="s">
+        <v>20</v>
+      </c>
+      <c r="C52">
+        <v>-556802193248.9008</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="1">
+        <v>43</v>
+      </c>
+      <c r="B53" t="s">
+        <v>18</v>
+      </c>
+      <c r="C53">
+        <v>-576726277158.0027</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="1">
+        <v>63</v>
+      </c>
+      <c r="B54" t="s">
+        <v>15</v>
+      </c>
+      <c r="C54">
+        <v>-758491110715.9227</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="1">
+        <v>19</v>
+      </c>
+      <c r="B55" t="s">
+        <v>20</v>
+      </c>
+      <c r="C55">
+        <v>-772866920158.3118</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="1">
+        <v>22</v>
+      </c>
+      <c r="B56" t="s">
+        <v>15</v>
+      </c>
+      <c r="C56">
+        <v>-774336814914.7452</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="1">
+        <v>52</v>
+      </c>
+      <c r="B57" t="s">
+        <v>13</v>
+      </c>
+      <c r="C57">
+        <v>-886765294548.5365</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="1">
+        <v>32</v>
+      </c>
+      <c r="B58" t="s">
+        <v>14</v>
+      </c>
+      <c r="C58">
+        <v>-1380068867959.581</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="1">
+        <v>70</v>
+      </c>
+      <c r="B59" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59">
+        <v>-1383262228206.697</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="1">
+        <v>33</v>
+      </c>
+      <c r="B60" t="s">
+        <v>14</v>
+      </c>
+      <c r="C60">
+        <v>-1526923721757.724</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="1">
+        <v>12</v>
+      </c>
+      <c r="B61" t="s">
+        <v>13</v>
+      </c>
+      <c r="C61">
+        <v>-1672046334446.533</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="1">
+        <v>71</v>
+      </c>
+      <c r="B62" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62">
+        <v>-2102087354202.322</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="1">
+        <v>20</v>
+      </c>
+      <c r="B63" t="s">
+        <v>16</v>
+      </c>
+      <c r="C63">
+        <v>-2411391163491.399</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="1">
+        <v>0</v>
+      </c>
+      <c r="B64" t="s">
+        <v>19</v>
+      </c>
+      <c r="C64">
+        <v>-2539612325126.266</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="1">
+        <v>31</v>
+      </c>
+      <c r="B65" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65">
+        <v>-3179707274318.835</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="1">
+        <v>15</v>
+      </c>
+      <c r="B66" t="s">
+        <v>17</v>
+      </c>
+      <c r="C66">
+        <v>-3356494739792.357</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="1">
+        <v>24</v>
+      </c>
+      <c r="B67" t="s">
+        <v>9</v>
+      </c>
+      <c r="C67">
+        <v>-4729647750591</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="1">
+        <v>28</v>
+      </c>
+      <c r="B68" t="s">
+        <v>12</v>
+      </c>
+      <c r="C68">
+        <v>-4914555230717.345</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="1">
+        <v>26</v>
+      </c>
+      <c r="B69" t="s">
+        <v>11</v>
+      </c>
+      <c r="C69">
+        <v>-5038602963252.366</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="1">
+        <v>5</v>
+      </c>
+      <c r="B70" t="s">
+        <v>7</v>
+      </c>
+      <c r="C70">
+        <v>-6076406202098.462</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="1">
+        <v>75</v>
+      </c>
+      <c r="B71" t="s">
         <v>4</v>
       </c>
-      <c r="C3">
-        <v>2.234307911802657</v>
-      </c>
-      <c r="D3">
-        <v>2.234307911802657</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
+      <c r="C71">
+        <v>-6156090627486.877</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="1">
+        <v>79</v>
+      </c>
+      <c r="B72" t="s">
+        <v>2</v>
+      </c>
+      <c r="C72">
+        <v>-6955273012296.634</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="1">
+        <v>17</v>
+      </c>
+      <c r="B73" t="s">
+        <v>3</v>
+      </c>
+      <c r="C73">
+        <v>-8190304114979.872</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="1">
+        <v>10</v>
+      </c>
+      <c r="B74" t="s">
+        <v>10</v>
+      </c>
+      <c r="C74">
+        <v>-8873293123366.893</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C75">
+        <v>-10333669085034.35</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="1">
+        <v>56</v>
+      </c>
+      <c r="B76" t="s">
+        <v>3</v>
+      </c>
+      <c r="C76">
+        <v>-16098281054527.61</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="1">
+        <v>57</v>
+      </c>
+      <c r="B77" t="s">
+        <v>3</v>
+      </c>
+      <c r="C77">
+        <v>-16098281054527.61</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="1">
+        <v>6</v>
+      </c>
+      <c r="B78" t="s">
+        <v>8</v>
+      </c>
+      <c r="C78">
+        <v>-16660080128964.3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="1">
+        <v>36</v>
+      </c>
+      <c r="B79" t="s">
         <v>5</v>
       </c>
-      <c r="C4">
-        <v>1.274185746192739</v>
-      </c>
-      <c r="D4">
-        <v>1.274185746192739</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5">
-        <v>1.151758648724093</v>
-      </c>
-      <c r="D5">
-        <v>1.151758648724093</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1">
-        <v>0</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6">
-        <v>1.007247189521158</v>
-      </c>
-      <c r="D6">
-        <v>1.007247189521158</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7">
-        <v>0.900964288841828</v>
-      </c>
-      <c r="D7">
-        <v>0.900964288841828</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1">
-        <v>15</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8">
-        <v>0.6349307486500023</v>
-      </c>
-      <c r="D8">
-        <v>0.6349307486500023</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9">
-        <v>-0.534241376998812</v>
-      </c>
-      <c r="D9">
-        <v>0.534241376998812</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1">
-        <v>11</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10">
-        <v>0.5141546056447418</v>
-      </c>
-      <c r="D10">
-        <v>0.5141546056447418</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1">
-        <v>13</v>
-      </c>
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11">
-        <v>0.4991443952118806</v>
-      </c>
-      <c r="D11">
-        <v>0.4991443952118806</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1">
-        <v>14</v>
-      </c>
-      <c r="B12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12">
-        <v>0.3898538979948598</v>
-      </c>
-      <c r="D12">
-        <v>0.3898538979948598</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1">
-        <v>1</v>
-      </c>
-      <c r="B13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13">
-        <v>-0.3554314508577416</v>
-      </c>
-      <c r="D13">
-        <v>0.3554314508577416</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1">
-        <v>9</v>
-      </c>
-      <c r="B14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14">
-        <v>0.2646628716205863</v>
-      </c>
-      <c r="D14">
-        <v>0.2646628716205863</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="1">
-        <v>3</v>
-      </c>
-      <c r="B15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15">
-        <v>0.2286173405519237</v>
-      </c>
-      <c r="D15">
-        <v>0.2286173405519237</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="1">
-        <v>7</v>
-      </c>
-      <c r="B16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16">
-        <v>0.1892732326457676</v>
-      </c>
-      <c r="D16">
-        <v>0.1892732326457676</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="1">
-        <v>8</v>
-      </c>
-      <c r="B17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17">
-        <v>0.1537339322812679</v>
-      </c>
-      <c r="D17">
-        <v>0.1537339322812679</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="1">
-        <v>6</v>
-      </c>
-      <c r="B18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18">
-        <v>0.04119126000074233</v>
-      </c>
-      <c r="D18">
-        <v>0.04119126000074233</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="1">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19">
-        <v>-0.02727662769375792</v>
-      </c>
-      <c r="D19">
-        <v>0.02727662769375792</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20">
-        <v>-0.02639476938953847</v>
-      </c>
-      <c r="D20">
-        <v>0.02639476938953847</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="1">
-        <v>17</v>
-      </c>
-      <c r="B21" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21">
-        <v>0.01072958586679404</v>
-      </c>
-      <c r="D21">
-        <v>0.01072958586679404</v>
+      <c r="C79">
+        <v>-24275438293709.83</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="1">
+        <v>39</v>
+      </c>
+      <c r="B80" t="s">
+        <v>2</v>
+      </c>
+      <c r="C80">
+        <v>-27387416819426.54</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="1">
+        <v>78</v>
+      </c>
+      <c r="B81" t="s">
+        <v>2</v>
+      </c>
+      <c r="C81">
+        <v>-46486030290462.2</v>
       </c>
     </row>
   </sheetData>

--- a/IncidentDuration_coef.xlsx
+++ b/IncidentDuration_coef.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>est_int</t>
   </si>
@@ -25,31 +25,13 @@
     <t>priority__Priority 4</t>
   </si>
   <si>
-    <t>appl_tier__Iron</t>
-  </si>
-  <si>
-    <t>contact_type__self-service</t>
-  </si>
-  <si>
-    <t>team__Specialist</t>
-  </si>
-  <si>
-    <t>contact_type__other</t>
+    <t>contact_type__Other</t>
   </si>
   <si>
     <t>inc_close_code__Information Provided / Training</t>
   </si>
   <si>
-    <t>contact_type__walk-in</t>
-  </si>
-  <si>
-    <t>contact_type__phone</t>
-  </si>
-  <si>
-    <t>inc_close_code__Data Correction</t>
-  </si>
-  <si>
-    <t>contact_type__chat</t>
+    <t>appl_tier__Silver</t>
   </si>
   <si>
     <t>inc_close_code__Software Correction</t>
@@ -58,22 +40,16 @@
     <t>inc_close_code__Environmental Restoration</t>
   </si>
   <si>
-    <t>appl_tier__Silver</t>
+    <t>inc_close_code__other</t>
   </si>
   <si>
     <t>inc_close_code__Security Modification</t>
   </si>
   <si>
-    <t>inc_close_code__other</t>
+    <t>appl_tier__Gold</t>
   </si>
   <si>
     <t>inc_close_code__Reboot / Restart</t>
-  </si>
-  <si>
-    <t>priority__other</t>
-  </si>
-  <si>
-    <t>appl_tier__Gold</t>
   </si>
 </sst>
 </file>
@@ -431,7 +407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -447,68 +423,68 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2">
-        <v>1.603126135689519</v>
+        <v>1.347158825273615</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
       <c r="C3">
-        <v>1.582030088410115</v>
+        <v>0.6454866656421309</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
       <c r="C4">
-        <v>1.042071431017158</v>
+        <v>0.0589937550298763</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
       <c r="C5">
-        <v>0.6995849453590227</v>
+        <v>-0.01820929942896091</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
       <c r="C6">
-        <v>0.5133107257478144</v>
+        <v>-0.1462066704613506</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
       <c r="C7">
-        <v>0.328494889741781</v>
+        <v>-0.2541199327167313</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -519,7 +495,7 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>0.2431662533879733</v>
+        <v>-0.3698442290367989</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -530,117 +506,29 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>0.2098949826736566</v>
+        <v>-0.5033290620130868</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
       <c r="C10">
-        <v>0.1713590621275107</v>
+        <v>-0.8246668669285009</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
       <c r="C11">
-        <v>0.1435562828894151</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1">
-        <v>16</v>
-      </c>
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12">
-        <v>0.07893911391661754</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13">
-        <v>0.07555385589139096</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="1">
-        <v>2</v>
-      </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14">
-        <v>-0.01448430586054563</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="1">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15">
-        <v>-0.2267557504163897</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="1">
-        <v>17</v>
-      </c>
-      <c r="B16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16">
-        <v>-0.2717905498314646</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="1">
-        <v>14</v>
-      </c>
-      <c r="B17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17">
-        <v>-0.6753869596215253</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1">
-        <v>4</v>
-      </c>
-      <c r="B18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18">
-        <v>-0.7136250178133361</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="1">
-        <v>0</v>
-      </c>
-      <c r="B19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19">
-        <v>-0.857691345998724</v>
+        <v>-0.9915309789430951</v>
       </c>
     </row>
   </sheetData>
